--- a/lista_espera_examenes.xlsx
+++ b/lista_espera_examenes.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
-  <si>
-    <t>ID Paciente</t>
-  </si>
-  <si>
-    <t>ID Solicitud</t>
-  </si>
-  <si>
-    <t>RUT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Rut</t>
   </si>
   <si>
     <t>Paciente</t>
@@ -35,79 +35,661 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Fecha Egreso</t>
-  </si>
-  <si>
-    <t>Motivo Egreso</t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Tipo Exámen</t>
+  </si>
+  <si>
+    <t>Exámen</t>
   </si>
   <si>
     <t>Fecha Solicitud</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Código Fonasa</t>
-  </si>
-  <si>
-    <t>Examen</t>
-  </si>
-  <si>
-    <t>Procedencia</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Especialidad</t>
+    <t>Fecha Agendada</t>
+  </si>
+  <si>
+    <t>Fecha egreso</t>
+  </si>
+  <si>
+    <t>Tiene Adjunto</t>
   </si>
   <si>
     <t>Profesional</t>
   </si>
   <si>
-    <t>Adjuntar</t>
-  </si>
-  <si>
-    <t>6768468-0</t>
-  </si>
-  <si>
-    <t> ROSENDA ACEVEDO QUINTANILLA</t>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
+    <t>Ingresado</t>
+  </si>
+  <si>
+    <t>CirugíaColoproctologicaHme</t>
+  </si>
+  <si>
+    <t>7086640-4</t>
+  </si>
+  <si>
+    <t>ELENA CONCEPCION BRAVO MADRID</t>
+  </si>
+  <si>
+    <t>Sin Informar</t>
+  </si>
+  <si>
+    <t>TOMOGRAFIA AXIAL COMPUTARIZADA (TAC) (CON O SIN MEDIO DE CONTRASTE)</t>
+  </si>
+  <si>
+    <t>Abdomen (hígado, vías y vesícula biliar, páncreas, bazo, suprarrenales y riñones) (40 cortes 8-10 mm)</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CARLENY JOSE CORDERO LUGO</t>
+  </si>
+  <si>
+    <t>Pelvis (28 cortes, 8-10 mm)</t>
+  </si>
+  <si>
+    <t>Odontologia</t>
+  </si>
+  <si>
+    <t>8468121-0</t>
+  </si>
+  <si>
+    <t>ELIANA DEL CARMEN ARAYA ARRATIA</t>
+  </si>
+  <si>
+    <t>988514818 pcte 977824544 hija</t>
+  </si>
+  <si>
+    <t>RESONANCIA MAGNETICA (incluye medio de contraste)</t>
+  </si>
+  <si>
+    <t>Columna cervical</t>
+  </si>
+  <si>
+    <t>SILVA GARATE MARCELO FERNANDO</t>
+  </si>
+  <si>
+    <t>Urología Hme</t>
+  </si>
+  <si>
+    <t>8527272-1</t>
+  </si>
+  <si>
+    <t>MARIO JESÚS SEPÚLVEDA CUETO</t>
+  </si>
+  <si>
+    <t>226424140 / 933168363 Esposa 937091314. Pcte</t>
+  </si>
+  <si>
+    <t>CHRISTIAN SAHMKOW PAEZ</t>
+  </si>
+  <si>
+    <t>Neurología Adulto Hme</t>
+  </si>
+  <si>
+    <t>11049702-4</t>
+  </si>
+  <si>
+    <t>ANGELA ORELLANA GUZMÁN</t>
+  </si>
+  <si>
+    <t>SANDRA GARCIA SANCHEZ</t>
+  </si>
+  <si>
+    <t>Cráneo-cerebro</t>
+  </si>
+  <si>
+    <t>Tórax total (30 cortes 8-10 mm)</t>
+  </si>
+  <si>
+    <t>8553373-8</t>
+  </si>
+  <si>
+    <t>MARÍA FERNÁNDEZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>Cerebro (30 cortes 8-10 mm)</t>
+  </si>
+  <si>
+    <t>MARIELYS LAREZ PEREIRA</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>10388475-6</t>
+  </si>
+  <si>
+    <t>DELFINA PACHECO RIQUELME</t>
+  </si>
+  <si>
+    <t>HECTOR ESPINOZA LOPEZ</t>
+  </si>
+  <si>
+    <t>20311877-5</t>
+  </si>
+  <si>
+    <t>PABLO ALONSO ATENAS CATALAN</t>
+  </si>
+  <si>
+    <t>969194995 940316346</t>
+  </si>
+  <si>
+    <t>Orbitas máxilofacial (incluye coronales) (40 cortes 2-4 mm)</t>
+  </si>
+  <si>
+    <t>15867476-9</t>
+  </si>
+  <si>
+    <t>DORIS CARO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>8727461-6</t>
+  </si>
+  <si>
+    <t>PATRICIA URETA PALACIOS</t>
   </si>
   <si>
     <t>Egresado</t>
   </si>
   <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado, vías y vesícula biliar, páncreas, bazo, suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t>2024-06-14 10:48:16</t>
-  </si>
-  <si>
-    <t> UROLOGIA HME</t>
-  </si>
-  <si>
-    <t>ARISTONY DE ARMAS VICTORES</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Ingresado</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro, Coxis, Caderas, Huesos Pélvicos, Articulaciones Sacro Ilíacas). Bilateral</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>CirugíaGeneralHme</t>
+  </si>
+  <si>
+    <t>9029014-2</t>
+  </si>
+  <si>
+    <t>JOSÉ RIQUELME VALDEBENITO</t>
+  </si>
+  <si>
+    <t>ECOTOMOGRAFIA</t>
+  </si>
+  <si>
+    <t>Partes Blandas -- [ECOTOMOGRAFÍA]</t>
+  </si>
+  <si>
+    <t>2024-11-19 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>CHRISTIAN CARRILLO SARANGO</t>
+  </si>
+  <si>
+    <t>CirugíaPediátricaHme</t>
+  </si>
+  <si>
+    <t>25542884-5</t>
+  </si>
+  <si>
+    <t>ALEXIA RODRÍGUEZ OPLAZA</t>
+  </si>
+  <si>
+    <t>998113488 MAMÃ</t>
+  </si>
+  <si>
+    <t>ANA MARÍA CRUZ PESTANA</t>
+  </si>
+  <si>
+    <t>Abdominal -- [ECOTOMOGRAFÍA]</t>
+  </si>
+  <si>
+    <t>2024-12-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>Proceso Quirurgico</t>
+  </si>
+  <si>
+    <t>6064310-5</t>
+  </si>
+  <si>
+    <t>LUCRECIA ARAYA ACEVEDO</t>
+  </si>
+  <si>
+    <t>2024-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>ANAIS JARA MAULEN</t>
+  </si>
+  <si>
+    <t>12652530-3</t>
+  </si>
+  <si>
+    <t>MARGARITA CÁCERES BELTRÁN</t>
+  </si>
+  <si>
+    <t>14138632-8</t>
+  </si>
+  <si>
+    <t>OLGA CASTRO VERGARA</t>
+  </si>
+  <si>
+    <t>74252368 964031562 pcte</t>
+  </si>
+  <si>
+    <t>TAC PIELO TAC</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>4917663-5</t>
+  </si>
+  <si>
+    <t>ROSALINDO ARAVENA CARRASCO</t>
+  </si>
+  <si>
+    <t>ARELI ZAMORA SUAREZ</t>
+  </si>
+  <si>
+    <t>5986564-1</t>
+  </si>
+  <si>
+    <t>ELBA ESPINOZA CATALAN</t>
+  </si>
+  <si>
+    <t>961008125 991674589......Hija</t>
+  </si>
+  <si>
+    <t>ISKENY SANCHEZ GRANADILLO</t>
+  </si>
+  <si>
+    <t>13114356-7</t>
+  </si>
+  <si>
+    <t>GUSTAVO BELLO APABLAZA</t>
+  </si>
+  <si>
+    <t>83173564-72138121-91740449</t>
+  </si>
+  <si>
+    <t>JESUS ASCANIO CARMONA</t>
+  </si>
+  <si>
+    <t>Pediatría Hme</t>
+  </si>
+  <si>
+    <t>24021633-7</t>
+  </si>
+  <si>
+    <t>EMILY PALACIOS PIZARRO</t>
+  </si>
+  <si>
+    <t>2024-12-06 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>MARIA CECILIA PABON UEGO</t>
+  </si>
+  <si>
+    <t>UTI Adultos</t>
+  </si>
+  <si>
+    <t>13775335-9</t>
+  </si>
+  <si>
+    <t>MONICA CANTILLANA LABRAÑA</t>
+  </si>
+  <si>
+    <t>STEPHANIE VILLASMIL CHIRINOS</t>
+  </si>
+  <si>
+    <t>14255750-9</t>
+  </si>
+  <si>
+    <t>MARCO ORELL GAJARDO</t>
+  </si>
+  <si>
+    <t>Angiotac de abdomen</t>
+  </si>
+  <si>
+    <t>nombre y apellido no especificado</t>
+  </si>
+  <si>
+    <t>Angiotac de torax</t>
+  </si>
+  <si>
+    <t>Columna cervical (4 espacios - 5 vértebras) (40 cortes 2 mm)</t>
+  </si>
+  <si>
+    <t>6819256-0</t>
+  </si>
+  <si>
+    <t>MARIA HERRERA QUINTANA</t>
+  </si>
+  <si>
+    <t>85141621 HIJA 77237487</t>
+  </si>
+  <si>
+    <t>MAIRA LUZARDO</t>
+  </si>
+  <si>
+    <t>8507831-3</t>
+  </si>
+  <si>
+    <t>HERNÁN CANALES ALVARADO</t>
+  </si>
+  <si>
+    <t>991650654 932574806</t>
+  </si>
+  <si>
+    <t>MAYRA PIZARRO CADENILLAS</t>
+  </si>
+  <si>
+    <t>12867146-3</t>
+  </si>
+  <si>
+    <t>VERONICA SANDOVAL GATICA</t>
+  </si>
+  <si>
+    <t>948897767. Hija - 978094647 MAMÃ NELLY GATICA 979737478 (PAPA)</t>
+  </si>
+  <si>
+    <t>ROSSANA RODRIGUEZ MENDOZA</t>
+  </si>
+  <si>
+    <t>7543375-1</t>
+  </si>
+  <si>
+    <t>AMÉRICA QUINTANILLA QUINTANILLA</t>
+  </si>
+  <si>
+    <t>POLI TACO</t>
+  </si>
+  <si>
+    <t>11526376-5</t>
+  </si>
+  <si>
+    <t>CAMILO NAVARRO JARA</t>
+  </si>
+  <si>
+    <t>949954798 NULL</t>
+  </si>
+  <si>
+    <t>Dopler ext inferior -- [ECOTOMOGRAFÍA]</t>
+  </si>
+  <si>
+    <t>2024-12-23 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>CAROLINA LORETO CONCHA BALLESTEROS</t>
+  </si>
+  <si>
+    <t>Cirugía</t>
+  </si>
+  <si>
+    <t>5093547-7</t>
+  </si>
+  <si>
+    <t>HECTOR GONZALEZ ATENAS</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA BARRIONUEVO SCHILLER</t>
+  </si>
+  <si>
+    <t>10608780-6</t>
+  </si>
+  <si>
+    <t>MARTA MURILLO ESCOBAR</t>
+  </si>
+  <si>
+    <t>8397738-8</t>
+  </si>
+  <si>
+    <t>JUAN CÓRDOVA SILVA</t>
+  </si>
+  <si>
+    <t>11111 942981110</t>
+  </si>
+  <si>
+    <t>4279182-2</t>
+  </si>
+  <si>
+    <t>EMPERATRIZ RAMIREZ ROJAS</t>
+  </si>
+  <si>
+    <t>10704566-K</t>
+  </si>
+  <si>
+    <t>CLAUDIO JARA BRICEÑO</t>
+  </si>
+  <si>
+    <t>Renal -- [ECOTOMOGRAFÍA]</t>
+  </si>
+  <si>
+    <t>2024-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>Vesical masculina -- [ECOTOMOGRAFÍA]</t>
+  </si>
+  <si>
+    <t>15106446-9</t>
+  </si>
+  <si>
+    <t>JAVIERA KLEIN ESCOBEDO</t>
+  </si>
+  <si>
+    <t>9-64340812 Pcte</t>
+  </si>
+  <si>
+    <t>11169778-7</t>
+  </si>
+  <si>
+    <t>ALICIA ORTIZ ÁLVAREZ</t>
+  </si>
+  <si>
+    <t>989591537 pacte 975707831 hija</t>
+  </si>
+  <si>
+    <t>SIN ASIGNAR</t>
+  </si>
+  <si>
+    <t>14311789-8</t>
+  </si>
+  <si>
+    <t>JOSÉ ADASME OLGUÍN</t>
+  </si>
+  <si>
+    <t>Colangioresonancia</t>
+  </si>
+  <si>
+    <t>EDUARDO MORALES MEZA</t>
+  </si>
+  <si>
+    <t>9728844-5</t>
+  </si>
+  <si>
+    <t>JOSÉ MUÑOZ QUIROZ</t>
+  </si>
+  <si>
+    <t>8284046-K</t>
+  </si>
+  <si>
+    <t>IRMA OLGUÍN GUZMÁN</t>
+  </si>
+  <si>
+    <t>9-77192709 esposo 974695588</t>
+  </si>
+  <si>
+    <t>18250983-3</t>
+  </si>
+  <si>
+    <t>BÁRBARA MIRANDA CABEDO</t>
+  </si>
+  <si>
+    <t>7116716-K</t>
+  </si>
+  <si>
+    <t>RICARDO VERA MOYA</t>
+  </si>
+  <si>
+    <t>955346974 Pablo Vera Hijo 967683557</t>
+  </si>
+  <si>
+    <t>Traumatología Y Ortopedia Adulto Hme</t>
+  </si>
+  <si>
+    <t>19421026-4</t>
+  </si>
+  <si>
+    <t>MARCELA SERRANO BASCUÑAN</t>
+  </si>
+  <si>
+    <t>936759977 paciente 936806978 pareja</t>
+  </si>
+  <si>
+    <t>Extremidades, estudio localizado (30 cortes 2-4 mm)</t>
+  </si>
+  <si>
+    <t>JANETH RODRIGUEZ BETANCOURT</t>
+  </si>
+  <si>
+    <t>19847747-8</t>
+  </si>
+  <si>
+    <t>ALISON PLAZA ÁVILA</t>
+  </si>
+  <si>
+    <t>8670164-2</t>
+  </si>
+  <si>
+    <t>LIZARDO ARANDA MORALES</t>
+  </si>
+  <si>
+    <t>NO REF</t>
+  </si>
+  <si>
+    <t>2024-09-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>8080298-6</t>
+  </si>
+  <si>
+    <t>ROSA CASTAÑEDA ALVAREZ</t>
+  </si>
+  <si>
+    <t>9660542-0</t>
+  </si>
+  <si>
+    <t>GLADYS DUARTE SANTIS</t>
+  </si>
+  <si>
+    <t>9-92670900 986144226 HIJA</t>
+  </si>
+  <si>
+    <t>2024-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>VELEZ CRESPO JOEL ROMEO</t>
+  </si>
+  <si>
+    <t>4699378-0</t>
+  </si>
+  <si>
+    <t>NURINARDA FLORES FLORES</t>
+  </si>
+  <si>
+    <t>9-56502158 PCTE</t>
+  </si>
+  <si>
+    <t>2024-11-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>27100671-3</t>
+  </si>
+  <si>
+    <t>ELIANA GARCIA CAYARA</t>
+  </si>
+  <si>
+    <t>978987097 978987097</t>
+  </si>
+  <si>
+    <t>8302882-3</t>
+  </si>
+  <si>
+    <t>VICTOR GOMEZ VILLALOBOS</t>
+  </si>
+  <si>
+    <t>DONALDO ENRIQUE BARRAZA RAMOS</t>
+  </si>
+  <si>
+    <t>7498620-K</t>
+  </si>
+  <si>
+    <t>GUILLERMINA TORRES BLANCO</t>
+  </si>
+  <si>
+    <t>998436513 82219054 HIJA</t>
+  </si>
+  <si>
+    <t>Orbitas</t>
+  </si>
+  <si>
+    <t>14246756-9</t>
+  </si>
+  <si>
+    <t>ELIZABETH SANTIS CARO</t>
+  </si>
+  <si>
+    <t>2024-09-10 00:00:00</t>
+  </si>
+  <si>
+    <t>GALDAMEZ ALVEAR ANA</t>
+  </si>
+  <si>
+    <t>11261366-8</t>
+  </si>
+  <si>
+    <t>VERÓNICA MANDIOLA DÍAZ</t>
+  </si>
+  <si>
+    <t>961889234 (MARIDO)</t>
+  </si>
+  <si>
+    <t>RODRIGO LEA PLAZA</t>
+  </si>
+  <si>
+    <t>5507912-9</t>
+  </si>
+  <si>
+    <t>MARIA LOPEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>15406236-K</t>
+  </si>
+  <si>
+    <t>JESSICA GONZALEZ VERA</t>
+  </si>
+  <si>
+    <t>41177179 MAMÃ 48981778</t>
   </si>
 </sst>
 </file>
@@ -447,7 +1029,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +1037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,38 +1080,31 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>93216</v>
-      </c>
-      <c r="B2">
-        <v>50259</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2"/>
       <c r="F2">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>403014</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -537,75 +1112,3189 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>403016</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>63</v>
+      </c>
+      <c r="G4">
+        <v>405005</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
         <v>403014</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>403016</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>403014</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>405001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>403016</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>403013</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>403001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>403001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
         <v>23</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
+      <c r="G13">
+        <v>403007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>403014</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>403016</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>403013</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>404016</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>404016</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>404003</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20">
+        <v>946672198</v>
+      </c>
+      <c r="F20">
+        <v>72</v>
+      </c>
+      <c r="G20">
+        <v>404016</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>956119907</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>404003</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>403014</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <v>403014</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>403016</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>81</v>
+      </c>
+      <c r="G25">
+        <v>403013</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>405005</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>403014</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <v>48</v>
+      </c>
+      <c r="G28">
+        <v>403016</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>403013</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>404003</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <v>403001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>403103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>403102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>403001</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>403008</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>403016</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37">
+        <v>71</v>
+      </c>
+      <c r="G37">
+        <v>403001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38">
+        <v>63</v>
+      </c>
+      <c r="G38">
+        <v>403014</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39">
+        <v>403016</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>403014</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>403016</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>67</v>
+      </c>
+      <c r="G42">
+        <v>403014</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>67</v>
+      </c>
+      <c r="G43">
+        <v>403016</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44">
+        <v>54</v>
+      </c>
+      <c r="G44">
+        <v>404118</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>80</v>
+      </c>
+      <c r="G45">
+        <v>403014</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
+      </c>
+      <c r="G46">
+        <v>403016</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47">
+        <v>936102165</v>
+      </c>
+      <c r="F47">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>404118</v>
+      </c>
+      <c r="H47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48">
+        <v>74</v>
+      </c>
+      <c r="G48">
+        <v>403014</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49">
+        <v>74</v>
+      </c>
+      <c r="G49">
+        <v>403016</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50">
+        <v>74</v>
+      </c>
+      <c r="G50">
+        <v>403013</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51">
+        <v>983630907</v>
+      </c>
+      <c r="F51">
+        <v>87</v>
+      </c>
+      <c r="G51">
+        <v>403001</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52">
+        <v>978232817</v>
+      </c>
+      <c r="F52">
+        <v>56</v>
+      </c>
+      <c r="G52">
+        <v>404010</v>
+      </c>
+      <c r="H52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" t="s">
+        <v>153</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53">
+        <v>978232817</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>404009</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>152</v>
+      </c>
+      <c r="L53" t="s">
+        <v>153</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <v>403007</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55">
+        <v>57</v>
+      </c>
+      <c r="G55">
+        <v>404003</v>
+      </c>
+      <c r="H55" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56">
+        <v>87341664</v>
+      </c>
+      <c r="F56">
+        <v>48</v>
+      </c>
+      <c r="G56">
+        <v>405098</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57">
+        <v>988142993</v>
+      </c>
+      <c r="F57">
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <v>403001</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58">
+        <v>988142993</v>
+      </c>
+      <c r="F58">
+        <v>64</v>
+      </c>
+      <c r="G58">
+        <v>403008</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59">
+        <v>65</v>
+      </c>
+      <c r="G59">
+        <v>403014</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60">
+        <v>954653168</v>
+      </c>
+      <c r="F60">
+        <v>31</v>
+      </c>
+      <c r="G60">
+        <v>403001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61">
+        <v>70</v>
+      </c>
+      <c r="G61">
+        <v>403001</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62">
+        <v>28</v>
+      </c>
+      <c r="G62">
+        <v>403017</v>
+      </c>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63">
+        <v>973633019</v>
+      </c>
+      <c r="F63">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>93216</v>
-      </c>
-      <c r="B3">
-        <v>50258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G63">
+        <v>403014</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64">
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <v>404016</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" t="s">
+        <v>188</v>
+      </c>
+      <c r="M64" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>403014</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>403016</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>403013</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68">
+        <v>64</v>
+      </c>
+      <c r="G68">
+        <v>404003</v>
+      </c>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>194</v>
+      </c>
+      <c r="L68" t="s">
+        <v>195</v>
+      </c>
+      <c r="M68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69">
+        <v>64</v>
+      </c>
+      <c r="G69">
+        <v>404016</v>
+      </c>
+      <c r="H69" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L69" t="s">
+        <v>195</v>
+      </c>
+      <c r="M69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70">
+        <v>79</v>
+      </c>
+      <c r="G70">
+        <v>404003</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="s">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>200</v>
+      </c>
+      <c r="L70" t="s">
+        <v>201</v>
+      </c>
+      <c r="M70" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71">
+        <v>34</v>
+      </c>
+      <c r="G71">
+        <v>403001</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>403001</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73">
+        <v>67</v>
+      </c>
+      <c r="G73">
+        <v>405001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74">
+        <v>67</v>
+      </c>
+      <c r="G74">
+        <v>405003</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>211</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
         <v>18</v>
       </c>
-      <c r="E3"/>
-      <c r="F3">
-        <v>68</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
+      <c r="F75">
+        <v>49</v>
+      </c>
+      <c r="G75">
+        <v>404016</v>
+      </c>
+      <c r="H75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76">
+        <v>58</v>
+      </c>
+      <c r="G76">
+        <v>403014</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3">
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77">
+        <v>58</v>
+      </c>
+      <c r="G77">
+        <v>403001</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78">
+        <v>58</v>
+      </c>
+      <c r="G78">
         <v>403016</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3" t="s">
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79">
+        <v>58</v>
+      </c>
+      <c r="G79">
+        <v>403013</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>84</v>
+      </c>
+      <c r="G80">
+        <v>403001</v>
+      </c>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81">
+        <v>41</v>
+      </c>
+      <c r="G81">
+        <v>403001</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/lista_espera_examenes.xlsx
+++ b/lista_espera_examenes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Estado</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Rut</t>
   </si>
   <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -62,34 +65,43 @@
     <t>Egresado</t>
   </si>
   <si>
-    <t>Medicina General PRAIS</t>
-  </si>
-  <si>
-    <t>14008588-K</t>
-  </si>
-  <si>
-    <t>MARCELO MUÑOZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>ECOTOMOGRAFIA</t>
-  </si>
-  <si>
-    <t>Vesical masculina -- [ECOTOMOGRAFÍA]</t>
-  </si>
-  <si>
-    <t>2024-09-09</t>
-  </si>
-  <si>
-    <t>2024-10-22 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
+    <t> UROLOGIA HME</t>
+  </si>
+  <si>
+    <t>6768468-0</t>
+  </si>
+  <si>
+    <t> ROSENDA ACEVEDO QUINTANILLA</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado, vías y vesícula biliar, páncreas, bazo, suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2024-06-14 10:48:16</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>ARISTONY DE ARMAS VICTORES</t>
+  </si>
+  <si>
+    <t>Ingresado</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro, Coxis, Caderas, Huesos Pélvicos, Articulaciones Sacro Ilíacas). Bilateral</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>FRANCISCO ECHEVERRIA MANZO</t>
   </si>
 </sst>
 </file>
@@ -429,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,31 +492,32 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>993892553</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>404009</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>403014</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -523,6 +536,52 @@
       </c>
       <c r="N2" t="s">
         <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>403016</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/lista_espera_examenes.xlsx
+++ b/lista_espera_examenes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Estado</t>
   </si>
@@ -62,46 +62,148 @@
     <t>Profesional</t>
   </si>
   <si>
-    <t>Egresado</t>
-  </si>
-  <si>
-    <t> UROLOGIA HME</t>
-  </si>
-  <si>
-    <t>6768468-0</t>
-  </si>
-  <si>
-    <t> ROSENDA ACEVEDO QUINTANILLA</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado, vías y vesícula biliar, páncreas, bazo, suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2024-06-14 10:48:16</t>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>ARISTONY DE ARMAS VICTORES</t>
-  </si>
-  <si>
     <t>Ingresado</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro, Coxis, Caderas, Huesos Pélvicos, Articulaciones Sacro Ilíacas). Bilateral</t>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>90063643-1</t>
+  </si>
+  <si>
+    <t>JAVIER  CASTRO MORAGA</t>
+  </si>
+  <si>
+    <t>996771763 mamá 90355066 PAPÁ</t>
+  </si>
+  <si>
+    <t>0404003</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado, vía biliar, vesícula, páncreas, riñones, bazo, retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NAVAS PINEDA DESIREE</t>
+  </si>
+  <si>
+    <t>Cirugía</t>
+  </si>
+  <si>
+    <t>20123936-2</t>
+  </si>
+  <si>
+    <t>ODHINNA CONCHA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>VELEZ CRESPO JOEL ROMEO</t>
+  </si>
+  <si>
+    <t>5990338-1</t>
+  </si>
+  <si>
+    <t>LUIS CONTRERAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>920092660--</t>
+  </si>
+  <si>
+    <t>0404010</t>
+  </si>
+  <si>
+    <t>Ecografía renal (bilateral), o de bazo</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>nombre y apellido no especificado</t>
+  </si>
+  <si>
+    <t>12915270-2</t>
+  </si>
+  <si>
+    <t>PAMELA CERON VIDAL</t>
+  </si>
+  <si>
+    <t>927740380/961309486 ---</t>
+  </si>
+  <si>
+    <t>0404016</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>LIXAIDA CABANES</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>24745356-3</t>
+  </si>
+  <si>
+    <t>BASTIAN  GONZALEZ  ABARCA</t>
+  </si>
+  <si>
+    <t>JUAN BAUTISTA SALINAS N°551, POMAIRE</t>
+  </si>
+  <si>
+    <t>0404014</t>
+  </si>
+  <si>
+    <t>Ecografía testicular (unilateral o bilateral) (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>24420575-5</t>
+  </si>
+  <si>
+    <t>SANTUSA CONDO MAMANI</t>
+  </si>
+  <si>
+    <t>86041192--</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>72853415-K</t>
+  </si>
+  <si>
+    <t>ESTEBAN ALEJANDRO QUIROZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>994396766 994396766</t>
+  </si>
+  <si>
+    <t>0405010,0405012</t>
+  </si>
+  <si>
+    <t>Resonancia magnética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>STEPHANIE VILLASMIL CHIRINOS</t>
   </si>
 </sst>
 </file>
@@ -441,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,34 +608,30 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
       <c r="G2">
-        <v>68</v>
-      </c>
-      <c r="H2">
-        <v>403014</v>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" t="s">
         <v>24</v>
       </c>
@@ -543,45 +641,248 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>123456789</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D3"/>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3"/>
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>959514866</v>
+      </c>
       <c r="G3">
-        <v>68</v>
-      </c>
-      <c r="H3">
-        <v>403016</v>
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
